--- a/main/Cases/ExampleBattery_time.xlsx
+++ b/main/Cases/ExampleBattery_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\ownCloud\AGISTIN\UPC\AGISTIN_UPC\agistin\main\Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\Desktop\CurrentProjects\AGISTIN\GitHub Repositories\Uni-Kassel_Task-3.2\agistin\main\Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE06177-73A5-4A65-A2B6-C1CA393BFD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78EF33F-7195-4343-A1D2-1BC18E00875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24810" yWindow="1995" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="EB" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Reservoir0_Q</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Battery_F</t>
+  </si>
+  <si>
+    <t>Battery_FCharge</t>
+  </si>
+  <si>
+    <t>Battery_FDisCharge</t>
   </si>
 </sst>
 </file>
@@ -458,42 +464,742 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD81B764-43AE-451C-8AA9-19EB34130F9B}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50.029000000000003</v>
+      </c>
+      <c r="B2">
+        <f>IF(A2&gt;=50,A2,50)</f>
+        <v>50.029000000000003</v>
+      </c>
+      <c r="C2">
+        <f>IF(A2&lt;=50,A2,50)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50.042999999999999</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B56" si="0">IF(A3&gt;=50,A3,50)</f>
+        <v>50.042999999999999</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C56" si="1">IF(A3&lt;=50,A3,50)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50.087000000000003</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>50.087000000000003</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49.853000000000002</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>49.853000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>49.9</v>
+        <v>49.832999999999998</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>49.832999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>49.899000000000001</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>49.899000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>49.857999999999997</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>49.857999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50.110999999999997</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>50.110999999999997</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>49.962000000000003</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>49.962000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>49.811</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>49.811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50.045999999999999</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>50.045999999999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>49.837000000000003</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>49.837000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>49.872</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>49.872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>49.835999999999999</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>49.835999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>49.884</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>49.884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>49.92</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>49.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>49.918999999999997</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>49.918999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>49.98</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>49.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>49.960999999999999</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>49.960999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>49.917000000000002</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>49.917000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50.164000000000001</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>50.164000000000001</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50.19</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>50.19</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>49.820999999999998</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>49.820999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>49.844000000000001</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>49.844000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>49.878</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>49.878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>50.155999999999999</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>50.155999999999999</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50.109000000000002</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>50.109000000000002</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50.134999999999998</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>50.134999999999998</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>49.975000000000001</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>49.975000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>49.984000000000002</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>49.984000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>49.981999999999999</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>49.981999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50.033000000000001</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>50.033000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>49.817999999999998</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>49.817999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>49.997</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>49.997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50.024000000000001</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>50.024000000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>49.97</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>49.97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>50.183999999999997</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>50.183999999999997</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>49.942999999999998</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>49.942999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>49.933</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>49.933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>50.052</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>50.052</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>49.844999999999999</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>49.844999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>49.819000000000003</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>49.819000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>49.837000000000003</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>49.837000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>50.084000000000003</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>50.084000000000003</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>49.872</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>49.872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>49.898000000000003</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>49.898000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>49.945</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>49.945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50.034999999999997</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>50.034999999999997</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50.043999999999997</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>50.043999999999997</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50.143999999999998</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>50.143999999999998</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49.948999999999998</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>49.948999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>49.97</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>49.97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50.170999999999999</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>50.170999999999999</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>49.848999999999997</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>49.848999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50.151000000000003</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>50.151000000000003</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -503,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C64DEEE-29E2-4B18-93D5-25BE8C220DE8}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A2" sqref="A2:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +1304,706 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>5</v>
       </c>
     </row>
